--- a/backend/src/excel_handler/files/GCLA.xlsx
+++ b/backend/src/excel_handler/files/GCLA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,57 +436,32 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>05-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
+          <t>21-04-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>17-02-2023</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>24-02-2023</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>03-03-2023</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>10-03-2023</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>17-03-2023</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>23-03-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
     </row>
@@ -497,37 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>111.84</v>
+        <v>105.29</v>
       </c>
       <c r="C2" t="n">
-        <v>88.83</v>
+        <v>106.19</v>
       </c>
       <c r="D2" t="n">
-        <v>88.95999999999999</v>
+        <v>100.35</v>
       </c>
       <c r="E2" t="n">
-        <v>93.70999999999999</v>
+        <v>97.28</v>
       </c>
       <c r="F2" t="n">
-        <v>98.98</v>
+        <v>98.42</v>
       </c>
       <c r="G2" t="n">
-        <v>109.61</v>
-      </c>
-      <c r="H2" t="n">
-        <v>98.53</v>
-      </c>
-      <c r="I2" t="n">
-        <v>103.7</v>
-      </c>
-      <c r="J2" t="n">
-        <v>102.42</v>
-      </c>
-      <c r="K2" t="n">
-        <v>93.84</v>
-      </c>
-      <c r="L2" t="n">
-        <v>105.29</v>
+        <v>86.81999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -536,36 +496,23 @@
           <t>Delta Select</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>204130.81</v>
+      </c>
       <c r="C3" t="n">
-        <v>202940.87</v>
+        <v>203064.76</v>
       </c>
       <c r="D3" t="n">
-        <v>204681.58</v>
+        <v>199027.27</v>
       </c>
       <c r="E3" t="n">
-        <v>203801.3</v>
+        <v>204285.14</v>
       </c>
       <c r="F3" t="n">
-        <v>202924.47</v>
+        <v>204937.25</v>
       </c>
       <c r="G3" t="n">
-        <v>204105.35</v>
-      </c>
-      <c r="H3" t="n">
-        <v>202952.4</v>
-      </c>
-      <c r="I3" t="n">
-        <v>203523.2</v>
-      </c>
-      <c r="J3" t="n">
-        <v>204568.79</v>
-      </c>
-      <c r="K3" t="n">
-        <v>204087.77</v>
-      </c>
-      <c r="L3" t="n">
-        <v>204130.81</v>
+        <v>204497.05</v>
       </c>
     </row>
     <row r="4">
@@ -575,37 +522,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>978.42</v>
+        <v>1161.33</v>
       </c>
       <c r="C4" t="n">
-        <v>751.41</v>
+        <v>1140.83</v>
       </c>
       <c r="D4" t="n">
-        <v>782.61</v>
+        <v>1156.13</v>
       </c>
       <c r="E4" t="n">
-        <v>768.38</v>
+        <v>1149.24</v>
       </c>
       <c r="F4" t="n">
-        <v>769.25</v>
+        <v>1211.16</v>
       </c>
       <c r="G4" t="n">
-        <v>770.88</v>
-      </c>
-      <c r="H4" t="n">
-        <v>1393.34</v>
-      </c>
-      <c r="I4" t="n">
-        <v>717.49</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1350.37</v>
-      </c>
-      <c r="K4" t="n">
-        <v>1123.94</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1161.33</v>
+        <v>1171.53</v>
       </c>
     </row>
     <row r="5">
@@ -615,37 +547,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1743.67</v>
+        <v>1137.2</v>
       </c>
       <c r="C5" t="n">
-        <v>1093.64</v>
+        <v>1147.46</v>
       </c>
       <c r="D5" t="n">
-        <v>1180.31</v>
+        <v>1160.05</v>
       </c>
       <c r="E5" t="n">
-        <v>1211.5</v>
+        <v>1173.19</v>
       </c>
       <c r="F5" t="n">
-        <v>1257.86</v>
+        <v>1240.74</v>
       </c>
       <c r="G5" t="n">
-        <v>1262.39</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1261.35</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1331.86</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1287.86</v>
-      </c>
-      <c r="K5" t="n">
-        <v>1103.48</v>
-      </c>
-      <c r="L5" t="n">
-        <v>1137.2</v>
+        <v>1310.5</v>
       </c>
     </row>
     <row r="6">
@@ -655,37 +572,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>944.64</v>
+        <v>51633.66</v>
       </c>
       <c r="C6" t="n">
-        <v>51218.69</v>
+        <v>51364.81</v>
       </c>
       <c r="D6" t="n">
-        <v>51683.36</v>
+        <v>50360.95</v>
       </c>
       <c r="E6" t="n">
-        <v>51468.72</v>
+        <v>51676.21</v>
       </c>
       <c r="F6" t="n">
-        <v>51262.64</v>
+        <v>51871.89</v>
       </c>
       <c r="G6" t="n">
-        <v>51562.06</v>
-      </c>
-      <c r="H6" t="n">
-        <v>51426.4</v>
-      </c>
-      <c r="I6" t="n">
-        <v>51419.06</v>
-      </c>
-      <c r="J6" t="n">
-        <v>51827.36</v>
-      </c>
-      <c r="K6" t="n">
-        <v>51602.26</v>
-      </c>
-      <c r="L6" t="n">
-        <v>51633.66</v>
+        <v>51766.47</v>
       </c>
     </row>
     <row r="7">
@@ -695,37 +597,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2833.93</v>
+        <v>206534.63</v>
       </c>
       <c r="C7" t="n">
-        <v>204874.75</v>
+        <v>205459.24</v>
       </c>
       <c r="D7" t="n">
-        <v>206733.46</v>
+        <v>201443.8</v>
       </c>
       <c r="E7" t="n">
-        <v>205874.89</v>
+        <v>206704.85</v>
       </c>
       <c r="F7" t="n">
-        <v>205050.56</v>
+        <v>207487.57</v>
       </c>
       <c r="G7" t="n">
-        <v>206248.23</v>
-      </c>
-      <c r="H7" t="n">
-        <v>205705.62</v>
-      </c>
-      <c r="I7" t="n">
-        <v>205676.25</v>
-      </c>
-      <c r="J7" t="n">
-        <v>207309.44</v>
-      </c>
-      <c r="K7" t="n">
-        <v>206409.03</v>
-      </c>
-      <c r="L7" t="n">
-        <v>206534.63</v>
+        <v>207065.9</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/GCLA.xlsx
+++ b/backend/src/excel_handler/files/GCLA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,32 +436,57 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>13-01-2023</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>20-01-2023</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>27-01-2023</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>03-02-2023</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>10-02-2023</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>17-02-2023</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>24-02-2023</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>03-03-2023</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>10-03-2023</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>17-03-2023</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>23-03-2023</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>31-03-2023</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>05-04-2023</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>14-04-2023</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>21-04-2023</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>28-04-2023</t>
         </is>
       </c>
     </row>
@@ -472,22 +497,37 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>111.84</v>
+      </c>
+      <c r="C2" t="n">
+        <v>88.83</v>
+      </c>
+      <c r="D2" t="n">
+        <v>88.95999999999999</v>
+      </c>
+      <c r="E2" t="n">
+        <v>93.70999999999999</v>
+      </c>
+      <c r="F2" t="n">
+        <v>98.98</v>
+      </c>
+      <c r="G2" t="n">
+        <v>109.61</v>
+      </c>
+      <c r="H2" t="n">
+        <v>98.53</v>
+      </c>
+      <c r="I2" t="n">
+        <v>103.7</v>
+      </c>
+      <c r="J2" t="n">
+        <v>102.42</v>
+      </c>
+      <c r="K2" t="n">
+        <v>93.84</v>
+      </c>
+      <c r="L2" t="n">
         <v>105.29</v>
-      </c>
-      <c r="C2" t="n">
-        <v>106.19</v>
-      </c>
-      <c r="D2" t="n">
-        <v>100.35</v>
-      </c>
-      <c r="E2" t="n">
-        <v>97.28</v>
-      </c>
-      <c r="F2" t="n">
-        <v>98.42</v>
-      </c>
-      <c r="G2" t="n">
-        <v>86.81999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -496,23 +536,36 @@
           <t>Delta Select</t>
         </is>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" t="inlineStr"/>
+      <c r="C3" t="n">
+        <v>202940.87</v>
+      </c>
+      <c r="D3" t="n">
+        <v>204681.58</v>
+      </c>
+      <c r="E3" t="n">
+        <v>203801.3</v>
+      </c>
+      <c r="F3" t="n">
+        <v>202924.47</v>
+      </c>
+      <c r="G3" t="n">
+        <v>204105.35</v>
+      </c>
+      <c r="H3" t="n">
+        <v>202952.4</v>
+      </c>
+      <c r="I3" t="n">
+        <v>203523.2</v>
+      </c>
+      <c r="J3" t="n">
+        <v>204568.79</v>
+      </c>
+      <c r="K3" t="n">
+        <v>204087.77</v>
+      </c>
+      <c r="L3" t="n">
         <v>204130.81</v>
-      </c>
-      <c r="C3" t="n">
-        <v>203064.76</v>
-      </c>
-      <c r="D3" t="n">
-        <v>199027.27</v>
-      </c>
-      <c r="E3" t="n">
-        <v>204285.14</v>
-      </c>
-      <c r="F3" t="n">
-        <v>204937.25</v>
-      </c>
-      <c r="G3" t="n">
-        <v>204497.05</v>
       </c>
     </row>
     <row r="4">
@@ -522,22 +575,37 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>978.42</v>
+      </c>
+      <c r="C4" t="n">
+        <v>751.41</v>
+      </c>
+      <c r="D4" t="n">
+        <v>782.61</v>
+      </c>
+      <c r="E4" t="n">
+        <v>768.38</v>
+      </c>
+      <c r="F4" t="n">
+        <v>769.25</v>
+      </c>
+      <c r="G4" t="n">
+        <v>770.88</v>
+      </c>
+      <c r="H4" t="n">
+        <v>1393.34</v>
+      </c>
+      <c r="I4" t="n">
+        <v>717.49</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1350.37</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1123.94</v>
+      </c>
+      <c r="L4" t="n">
         <v>1161.33</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1140.83</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1156.13</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1149.24</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1211.16</v>
-      </c>
-      <c r="G4" t="n">
-        <v>1171.53</v>
       </c>
     </row>
     <row r="5">
@@ -547,22 +615,37 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>1743.67</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1093.64</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1180.31</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1211.5</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1257.86</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1262.39</v>
+      </c>
+      <c r="H5" t="n">
+        <v>1261.35</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1331.86</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1287.86</v>
+      </c>
+      <c r="K5" t="n">
+        <v>1103.48</v>
+      </c>
+      <c r="L5" t="n">
         <v>1137.2</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1147.46</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1160.05</v>
-      </c>
-      <c r="E5" t="n">
-        <v>1173.19</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1240.74</v>
-      </c>
-      <c r="G5" t="n">
-        <v>1310.5</v>
       </c>
     </row>
     <row r="6">
@@ -572,22 +655,37 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>944.64</v>
+      </c>
+      <c r="C6" t="n">
+        <v>51218.69</v>
+      </c>
+      <c r="D6" t="n">
+        <v>51683.36</v>
+      </c>
+      <c r="E6" t="n">
+        <v>51468.72</v>
+      </c>
+      <c r="F6" t="n">
+        <v>51262.64</v>
+      </c>
+      <c r="G6" t="n">
+        <v>51562.06</v>
+      </c>
+      <c r="H6" t="n">
+        <v>51426.4</v>
+      </c>
+      <c r="I6" t="n">
+        <v>51419.06</v>
+      </c>
+      <c r="J6" t="n">
+        <v>51827.36</v>
+      </c>
+      <c r="K6" t="n">
+        <v>51602.26</v>
+      </c>
+      <c r="L6" t="n">
         <v>51633.66</v>
-      </c>
-      <c r="C6" t="n">
-        <v>51364.81</v>
-      </c>
-      <c r="D6" t="n">
-        <v>50360.95</v>
-      </c>
-      <c r="E6" t="n">
-        <v>51676.21</v>
-      </c>
-      <c r="F6" t="n">
-        <v>51871.89</v>
-      </c>
-      <c r="G6" t="n">
-        <v>51766.47</v>
       </c>
     </row>
     <row r="7">
@@ -597,22 +695,37 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>2833.93</v>
+      </c>
+      <c r="C7" t="n">
+        <v>204874.75</v>
+      </c>
+      <c r="D7" t="n">
+        <v>206733.46</v>
+      </c>
+      <c r="E7" t="n">
+        <v>205874.89</v>
+      </c>
+      <c r="F7" t="n">
+        <v>205050.56</v>
+      </c>
+      <c r="G7" t="n">
+        <v>206248.23</v>
+      </c>
+      <c r="H7" t="n">
+        <v>205705.62</v>
+      </c>
+      <c r="I7" t="n">
+        <v>205676.25</v>
+      </c>
+      <c r="J7" t="n">
+        <v>207309.44</v>
+      </c>
+      <c r="K7" t="n">
+        <v>206409.03</v>
+      </c>
+      <c r="L7" t="n">
         <v>206534.63</v>
-      </c>
-      <c r="C7" t="n">
-        <v>205459.24</v>
-      </c>
-      <c r="D7" t="n">
-        <v>201443.8</v>
-      </c>
-      <c r="E7" t="n">
-        <v>206704.85</v>
-      </c>
-      <c r="F7" t="n">
-        <v>207487.57</v>
-      </c>
-      <c r="G7" t="n">
-        <v>207065.9</v>
       </c>
     </row>
   </sheetData>

--- a/backend/src/excel_handler/files/GCLA.xlsx
+++ b/backend/src/excel_handler/files/GCLA.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:AA7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,57 +436,132 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>13-01-2023</t>
+          <t>23-03-2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>20-01-2023</t>
+          <t>31-03-2023</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>27-01-2023</t>
+          <t>05-04-2023</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>03-02-2023</t>
+          <t>14-04-2023</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>10-02-2023</t>
+          <t>21-04-2023</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>17-02-2023</t>
+          <t>28-04-2023</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>24-02-2023</t>
+          <t>05-05-2023</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>03-03-2023</t>
+          <t>12-05-2023</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>10-03-2023</t>
+          <t>19-05-2023</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>17-03-2023</t>
+          <t>24-05-2023</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>23-03-2023</t>
+          <t>02-06-2023</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>09-06-2023</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>16-06-2023</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>23-06-2023</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>30-06-2023</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>14-07-2023</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>21-07-2023</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>28-07-2023</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>04-08-2023</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>11-08-2023</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>18-08-2023</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>25-08-2023</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>01-09-2023</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>08-09-2023</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>22-09-2023</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>29-09-2023</t>
         </is>
       </c>
     </row>
@@ -497,37 +572,82 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>111.84</v>
+        <v>105.29</v>
       </c>
       <c r="C2" t="n">
-        <v>88.83</v>
+        <v>106.19</v>
       </c>
       <c r="D2" t="n">
-        <v>88.95999999999999</v>
+        <v>100.35</v>
       </c>
       <c r="E2" t="n">
-        <v>93.70999999999999</v>
+        <v>97.28</v>
       </c>
       <c r="F2" t="n">
-        <v>98.98</v>
+        <v>98.42</v>
       </c>
       <c r="G2" t="n">
-        <v>109.61</v>
+        <v>86.81999999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>98.53</v>
+        <v>89.73</v>
       </c>
       <c r="I2" t="n">
-        <v>103.7</v>
+        <v>92.31999999999999</v>
       </c>
       <c r="J2" t="n">
-        <v>102.42</v>
+        <v>74.41</v>
       </c>
       <c r="K2" t="n">
-        <v>93.84</v>
+        <v>73.88</v>
       </c>
       <c r="L2" t="n">
-        <v>105.29</v>
+        <v>70.86</v>
+      </c>
+      <c r="M2" t="n">
+        <v>67.95</v>
+      </c>
+      <c r="N2" t="n">
+        <v>60.84</v>
+      </c>
+      <c r="O2" t="n">
+        <v>50.89</v>
+      </c>
+      <c r="P2" t="n">
+        <v>51.49</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>53.98</v>
+      </c>
+      <c r="R2" t="n">
+        <v>52.59</v>
+      </c>
+      <c r="S2" t="n">
+        <v>52.48</v>
+      </c>
+      <c r="T2" t="n">
+        <v>49</v>
+      </c>
+      <c r="U2" t="n">
+        <v>38.73</v>
+      </c>
+      <c r="V2" t="n">
+        <v>32.62</v>
+      </c>
+      <c r="W2" t="n">
+        <v>33.37</v>
+      </c>
+      <c r="X2" t="n">
+        <v>32.47</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>32.4</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>34.88</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>35.9</v>
       </c>
     </row>
     <row r="3">
@@ -536,36 +656,83 @@
           <t>Delta Select</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr"/>
+      <c r="B3" t="n">
+        <v>204130.81</v>
+      </c>
       <c r="C3" t="n">
-        <v>202940.87</v>
+        <v>203064.76</v>
       </c>
       <c r="D3" t="n">
-        <v>204681.58</v>
+        <v>199027.27</v>
       </c>
       <c r="E3" t="n">
-        <v>203801.3</v>
+        <v>204285.14</v>
       </c>
       <c r="F3" t="n">
-        <v>202924.47</v>
+        <v>204937.25</v>
       </c>
       <c r="G3" t="n">
-        <v>204105.35</v>
+        <v>204497.05</v>
       </c>
       <c r="H3" t="n">
-        <v>202952.4</v>
+        <v>204567.41</v>
       </c>
       <c r="I3" t="n">
-        <v>203523.2</v>
+        <v>204643</v>
       </c>
       <c r="J3" t="n">
-        <v>204568.79</v>
+        <v>203887.74</v>
       </c>
       <c r="K3" t="n">
-        <v>204087.77</v>
+        <v>204521.18</v>
       </c>
       <c r="L3" t="n">
-        <v>204130.81</v>
+        <v>203835.24</v>
+      </c>
+      <c r="M3" t="n">
+        <v>203257.89</v>
+      </c>
+      <c r="N3" t="n">
+        <v>203903.19</v>
+      </c>
+      <c r="O3" t="n">
+        <v>204160.62</v>
+      </c>
+      <c r="P3" t="n">
+        <v>204600.24</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>204183.2</v>
+      </c>
+      <c r="R3" t="n">
+        <v>203111.04</v>
+      </c>
+      <c r="S3" t="n">
+        <v>204203.84</v>
+      </c>
+      <c r="T3" t="n">
+        <v>203825.71</v>
+      </c>
+      <c r="U3" t="n">
+        <v>204597.49</v>
+      </c>
+      <c r="V3" t="n">
+        <v>203929.54</v>
+      </c>
+      <c r="W3" t="n">
+        <v>203359.06</v>
+      </c>
+      <c r="X3" t="n">
+        <v>203018.68</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>204153.39</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>202896.41</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>204182.09</v>
       </c>
     </row>
     <row r="4">
@@ -575,37 +742,82 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>978.42</v>
+        <v>1161.33</v>
       </c>
       <c r="C4" t="n">
-        <v>751.41</v>
+        <v>1140.83</v>
       </c>
       <c r="D4" t="n">
-        <v>782.61</v>
+        <v>1156.13</v>
       </c>
       <c r="E4" t="n">
-        <v>768.38</v>
+        <v>1149.24</v>
       </c>
       <c r="F4" t="n">
-        <v>769.25</v>
+        <v>1211.16</v>
       </c>
       <c r="G4" t="n">
-        <v>770.88</v>
+        <v>1171.53</v>
       </c>
       <c r="H4" t="n">
-        <v>1393.34</v>
+        <v>1149.54</v>
       </c>
       <c r="I4" t="n">
-        <v>717.49</v>
+        <v>1201.82</v>
       </c>
       <c r="J4" t="n">
-        <v>1350.37</v>
+        <v>1087.28</v>
       </c>
       <c r="K4" t="n">
-        <v>1123.94</v>
+        <v>1112.09</v>
       </c>
       <c r="L4" t="n">
-        <v>1161.33</v>
+        <v>1112.73</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1151.19</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1201.91</v>
+      </c>
+      <c r="O4" t="n">
+        <v>1127.06</v>
+      </c>
+      <c r="P4" t="n">
+        <v>1132.69</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1154.87</v>
+      </c>
+      <c r="R4" t="n">
+        <v>1223.85</v>
+      </c>
+      <c r="S4" t="n">
+        <v>1158.62</v>
+      </c>
+      <c r="T4" t="n">
+        <v>1110.62</v>
+      </c>
+      <c r="U4" t="n">
+        <v>1074.56</v>
+      </c>
+      <c r="V4" t="n">
+        <v>1166.3</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1208.83</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1330.82</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>1140.96</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>1235.47</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>1330.78</v>
       </c>
     </row>
     <row r="5">
@@ -615,37 +827,82 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1743.67</v>
+        <v>1137.2</v>
       </c>
       <c r="C5" t="n">
-        <v>1093.64</v>
+        <v>1147.46</v>
       </c>
       <c r="D5" t="n">
-        <v>1180.31</v>
+        <v>1160.05</v>
       </c>
       <c r="E5" t="n">
-        <v>1211.5</v>
+        <v>1173.19</v>
       </c>
       <c r="F5" t="n">
-        <v>1257.86</v>
+        <v>1240.74</v>
       </c>
       <c r="G5" t="n">
-        <v>1262.39</v>
+        <v>1310.5</v>
       </c>
       <c r="H5" t="n">
-        <v>1261.35</v>
+        <v>1300.52</v>
       </c>
       <c r="I5" t="n">
-        <v>1331.86</v>
+        <v>1354.11</v>
       </c>
       <c r="J5" t="n">
-        <v>1287.86</v>
+        <v>1216.96</v>
       </c>
       <c r="K5" t="n">
-        <v>1103.48</v>
+        <v>1230.38</v>
       </c>
       <c r="L5" t="n">
-        <v>1137.2</v>
+        <v>1221.38</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1256.08</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1288.85</v>
+      </c>
+      <c r="O5" t="n">
+        <v>1182.84</v>
+      </c>
+      <c r="P5" t="n">
+        <v>1183.53</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1185.44</v>
+      </c>
+      <c r="R5" t="n">
+        <v>1259.9</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1187.28</v>
+      </c>
+      <c r="T5" t="n">
+        <v>1144.05</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1131.78</v>
+      </c>
+      <c r="V5" t="n">
+        <v>1231.46</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1267.59</v>
+      </c>
+      <c r="X5" t="n">
+        <v>1250.87</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>1053.7</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>1144.25</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>1252.99</v>
       </c>
     </row>
     <row r="6">
@@ -655,37 +912,82 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>944.64</v>
+        <v>51633.66</v>
       </c>
       <c r="C6" t="n">
-        <v>51218.69</v>
+        <v>51364.81</v>
       </c>
       <c r="D6" t="n">
-        <v>51683.36</v>
+        <v>50360.95</v>
       </c>
       <c r="E6" t="n">
-        <v>51468.72</v>
+        <v>51676.21</v>
       </c>
       <c r="F6" t="n">
-        <v>51262.64</v>
+        <v>51871.89</v>
       </c>
       <c r="G6" t="n">
-        <v>51562.06</v>
+        <v>51766.47</v>
       </c>
       <c r="H6" t="n">
-        <v>51426.4</v>
+        <v>51776.8</v>
       </c>
       <c r="I6" t="n">
-        <v>51419.06</v>
+        <v>51822.81</v>
       </c>
       <c r="J6" t="n">
-        <v>51827.36</v>
+        <v>51566.6</v>
       </c>
       <c r="K6" t="n">
-        <v>51602.26</v>
+        <v>51734.38</v>
       </c>
       <c r="L6" t="n">
-        <v>51633.66</v>
+        <v>51560.05</v>
+      </c>
+      <c r="M6" t="n">
+        <v>51433.28</v>
+      </c>
+      <c r="N6" t="n">
+        <v>51613.7</v>
+      </c>
+      <c r="O6" t="n">
+        <v>51630.35</v>
+      </c>
+      <c r="P6" t="n">
+        <v>51741.99</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>51644.37</v>
+      </c>
+      <c r="R6" t="n">
+        <v>51411.85</v>
+      </c>
+      <c r="S6" t="n">
+        <v>51650.56</v>
+      </c>
+      <c r="T6" t="n">
+        <v>51532.35</v>
+      </c>
+      <c r="U6" t="n">
+        <v>51710.64</v>
+      </c>
+      <c r="V6" t="n">
+        <v>51589.98</v>
+      </c>
+      <c r="W6" t="n">
+        <v>51467.21</v>
+      </c>
+      <c r="X6" t="n">
+        <v>51408.21</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>51595.11</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>51327.75</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>51700.44</v>
       </c>
     </row>
     <row r="7">
@@ -695,37 +997,82 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2833.93</v>
+        <v>206534.63</v>
       </c>
       <c r="C7" t="n">
-        <v>204874.75</v>
+        <v>205459.24</v>
       </c>
       <c r="D7" t="n">
-        <v>206733.46</v>
+        <v>201443.8</v>
       </c>
       <c r="E7" t="n">
-        <v>205874.89</v>
+        <v>206704.85</v>
       </c>
       <c r="F7" t="n">
-        <v>205050.56</v>
+        <v>207487.57</v>
       </c>
       <c r="G7" t="n">
-        <v>206248.23</v>
+        <v>207065.9</v>
       </c>
       <c r="H7" t="n">
-        <v>205705.62</v>
+        <v>207107.2</v>
       </c>
       <c r="I7" t="n">
-        <v>205676.25</v>
+        <v>207291.25</v>
       </c>
       <c r="J7" t="n">
-        <v>207309.44</v>
+        <v>206266.39</v>
       </c>
       <c r="K7" t="n">
-        <v>206409.03</v>
+        <v>206937.53</v>
       </c>
       <c r="L7" t="n">
-        <v>206534.63</v>
+        <v>206240.21</v>
+      </c>
+      <c r="M7" t="n">
+        <v>205733.11</v>
+      </c>
+      <c r="N7" t="n">
+        <v>206454.79</v>
+      </c>
+      <c r="O7" t="n">
+        <v>206521.41</v>
+      </c>
+      <c r="P7" t="n">
+        <v>206967.95</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>206577.49</v>
+      </c>
+      <c r="R7" t="n">
+        <v>205647.38</v>
+      </c>
+      <c r="S7" t="n">
+        <v>206602.22</v>
+      </c>
+      <c r="T7" t="n">
+        <v>206129.38</v>
+      </c>
+      <c r="U7" t="n">
+        <v>206842.56</v>
+      </c>
+      <c r="V7" t="n">
+        <v>206359.92</v>
+      </c>
+      <c r="W7" t="n">
+        <v>205868.85</v>
+      </c>
+      <c r="X7" t="n">
+        <v>205632.84</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>206380.45</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>205311.01</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>206801.76</v>
       </c>
     </row>
   </sheetData>
